--- a/test data/Book1.xlsx
+++ b/test data/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304150\eclipse-workspace\HACKATHON_COURSE\test data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="84">
   <si>
     <t>Language</t>
   </si>
@@ -168,12 +168,144 @@
   <si>
     <t>Must be valid email.
 example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>4.5
+(5,274 reviews)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,642 reviews)</t>
+  </si>
+  <si>
+    <t>English (1,645)</t>
+  </si>
+  <si>
+    <t>Spanish (1,101)</t>
+  </si>
+  <si>
+    <t>Arabic (1,012)</t>
+  </si>
+  <si>
+    <t>French (997)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (993)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (988)</t>
+  </si>
+  <si>
+    <t>German (977)</t>
+  </si>
+  <si>
+    <t>Indonesian (976)</t>
+  </si>
+  <si>
+    <t>Hindi (972)</t>
+  </si>
+  <si>
+    <t>Italian (971)</t>
+  </si>
+  <si>
+    <t>Swedish (970)</t>
+  </si>
+  <si>
+    <t>Dutch (969)</t>
+  </si>
+  <si>
+    <t>Greek (969)</t>
+  </si>
+  <si>
+    <t>Polish (969)</t>
+  </si>
+  <si>
+    <t>Thai (969)</t>
+  </si>
+  <si>
+    <t>Turkish (969)</t>
+  </si>
+  <si>
+    <t>Ukrainian (969)</t>
+  </si>
+  <si>
+    <t>Russian (946)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
+  </si>
+  <si>
+    <t>Hungarian (697)</t>
+  </si>
+  <si>
+    <t>Mixed (149)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,674 reviews)</t>
+  </si>
+  <si>
+    <t>Web Design for Everybody: Basics of Web Development &amp; Coding Specialization</t>
+  </si>
+  <si>
+    <t>4.8
+(24,789 reviews)</t>
+  </si>
+  <si>
+    <t>Flexible schedule</t>
+  </si>
+  <si>
+    <t>Beginner (885)</t>
+  </si>
+  <si>
+    <t>Intermediate (782)</t>
+  </si>
+  <si>
+    <t>English (1,647)</t>
+  </si>
+  <si>
+    <t>4.8
+(24,791 reviews)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,713 reviews)</t>
+  </si>
+  <si>
+    <t>Japanese (979)</t>
+  </si>
+  <si>
+    <t>Korean (977)</t>
+  </si>
+  <si>
+    <t>Beginner (887)</t>
+  </si>
+  <si>
+    <t>English (1,649)</t>
+  </si>
+  <si>
+    <t>English (1,651)</t>
+  </si>
+  <si>
+    <t>Intermediate (784)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,739 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,308 reviews)</t>
+  </si>
+  <si>
+    <t>Spanish (288)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,12 +674,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.7265625"/>
+    <col min="2" max="2" customWidth="true" style="1" width="41.81640625"/>
+    <col min="3" max="3" customWidth="true" style="1" width="49.6328125"/>
+    <col min="4" max="4" customWidth="true" width="16.90625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.08984375"/>
+    <col min="6" max="16384" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.3">
@@ -568,53 +700,53 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
+      <c r="D2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
+      <c r="E3" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s" s="1">
         <v>33</v>
       </c>
     </row>
@@ -622,18 +754,18 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
@@ -641,95 +773,95 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>40</v>
       </c>
     </row>

--- a/test data/Book1.xlsx
+++ b/test data/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="108">
   <si>
     <t>Language</t>
   </si>
@@ -299,6 +299,78 @@
   </si>
   <si>
     <t>Spanish (288)</t>
+  </si>
+  <si>
+    <t>Arabic (273)</t>
+  </si>
+  <si>
+    <t>French (249)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (239)</t>
+  </si>
+  <si>
+    <t>Indonesian (234)</t>
+  </si>
+  <si>
+    <t>Japanese (234)</t>
+  </si>
+  <si>
+    <t>Turkish (234)</t>
+  </si>
+  <si>
+    <t>Ukrainian (234)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (233)</t>
+  </si>
+  <si>
+    <t>Korean (233)</t>
+  </si>
+  <si>
+    <t>Dutch (232)</t>
+  </si>
+  <si>
+    <t>German (232)</t>
+  </si>
+  <si>
+    <t>Greek (232)</t>
+  </si>
+  <si>
+    <t>Hindi (232)</t>
+  </si>
+  <si>
+    <t>Italian (232)</t>
+  </si>
+  <si>
+    <t>Polish (232)</t>
+  </si>
+  <si>
+    <t>Swedish (232)</t>
+  </si>
+  <si>
+    <t>Thai (232)</t>
+  </si>
+  <si>
+    <t>Russian (208)</t>
+  </si>
+  <si>
+    <t>Kazakh (203)</t>
+  </si>
+  <si>
+    <t>Hungarian (160)</t>
+  </si>
+  <si>
+    <t>Beginner (470)</t>
+  </si>
+  <si>
+    <t>Intermediate (442)</t>
+  </si>
+  <si>
+    <t>Advanced (32)</t>
+  </si>
+  <si>
+    <t>Mixed (75)</t>
   </si>
 </sst>
 </file>

--- a/test data/Book1.xlsx
+++ b/test data/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="112">
   <si>
     <t>Language</t>
   </si>
@@ -371,6 +371,20 @@
   </si>
   <si>
     <t>Mixed (75)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,761 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,321 reviews)</t>
+  </si>
+  <si>
+    <t>Beginner (895)</t>
+  </si>
+  <si>
+    <t>Intermediate (786)</t>
   </si>
 </sst>
 </file>
@@ -779,20 +793,20 @@
         <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -800,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>32</v>
@@ -816,7 +830,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>33</v>
@@ -833,12 +847,12 @@
         <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -849,87 +863,87 @@
         <v>42</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s" s="0">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s" s="0">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D13" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">

--- a/test data/Book1.xlsx
+++ b/test data/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="166">
   <si>
     <t>Language</t>
   </si>
@@ -385,6 +385,174 @@
   </si>
   <si>
     <t>Intermediate (786)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,794 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,337 reviews)</t>
+  </si>
+  <si>
+    <t>Arabic (1,011)</t>
+  </si>
+  <si>
+    <t>French (996)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (987)</t>
+  </si>
+  <si>
+    <t>Indonesian (975)</t>
+  </si>
+  <si>
+    <t>Japanese (980)</t>
+  </si>
+  <si>
+    <t>Turkish (968)</t>
+  </si>
+  <si>
+    <t>Ukrainian (968)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (992)</t>
+  </si>
+  <si>
+    <t>Korean (978)</t>
+  </si>
+  <si>
+    <t>Dutch (968)</t>
+  </si>
+  <si>
+    <t>German (976)</t>
+  </si>
+  <si>
+    <t>Greek (968)</t>
+  </si>
+  <si>
+    <t>Hindi (971)</t>
+  </si>
+  <si>
+    <t>Italian (970)</t>
+  </si>
+  <si>
+    <t>Polish (968)</t>
+  </si>
+  <si>
+    <t>Swedish (969)</t>
+  </si>
+  <si>
+    <t>Thai (968)</t>
+  </si>
+  <si>
+    <t>Russian (945)</t>
+  </si>
+  <si>
+    <t>Kazakh (893)</t>
+  </si>
+  <si>
+    <t>Mixed (148)</t>
+  </si>
+  <si>
+    <t>English (1,662)</t>
+  </si>
+  <si>
+    <t>Spanish (1,100)</t>
+  </si>
+  <si>
+    <t>Beginner (896)</t>
+  </si>
+  <si>
+    <t>Intermediate (788)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,816 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,358 reviews)</t>
+  </si>
+  <si>
+    <t>English (1,664)</t>
+  </si>
+  <si>
+    <t>4.7
+(14,847 reviews)</t>
+  </si>
+  <si>
+    <t>4.5
+(5,375 reviews)</t>
+  </si>
+  <si>
+    <t>Spanish (1,098)</t>
+  </si>
+  <si>
+    <t>Arabic (1,009)</t>
+  </si>
+  <si>
+    <t>French (994)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (985)</t>
+  </si>
+  <si>
+    <t>Indonesian (973)</t>
+  </si>
+  <si>
+    <t>Japanese (978)</t>
+  </si>
+  <si>
+    <t>Turkish (966)</t>
+  </si>
+  <si>
+    <t>Ukrainian (966)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (990)</t>
+  </si>
+  <si>
+    <t>Korean (976)</t>
+  </si>
+  <si>
+    <t>Dutch (966)</t>
+  </si>
+  <si>
+    <t>German (974)</t>
+  </si>
+  <si>
+    <t>Greek (966)</t>
+  </si>
+  <si>
+    <t>Hindi (969)</t>
+  </si>
+  <si>
+    <t>Italian (968)</t>
+  </si>
+  <si>
+    <t>Polish (966)</t>
+  </si>
+  <si>
+    <t>Swedish (967)</t>
+  </si>
+  <si>
+    <t>Thai (966)</t>
+  </si>
+  <si>
+    <t>Russian (943)</t>
+  </si>
+  <si>
+    <t>Hungarian (695)</t>
+  </si>
+  <si>
+    <t>Beginner (897)</t>
+  </si>
+  <si>
+    <t>Intermediate (789)</t>
+  </si>
+  <si>
+    <t>English (1,666)</t>
   </si>
 </sst>
 </file>
@@ -793,20 +961,20 @@
         <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -814,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>32</v>
@@ -830,7 +998,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>33</v>
@@ -847,12 +1015,12 @@
         <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s" s="0">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -863,87 +1031,87 @@
         <v>42</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s" s="0">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s" s="0">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D13" t="s" s="0">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s" s="0">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s" s="0">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s" s="0">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s" s="0">
-        <v>24</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s" s="0">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s" s="0">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="s" s="0">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s" s="0">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
